--- a/bases_de_datos/playstore.xlsx
+++ b/bases_de_datos/playstore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19200" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19200" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3575,7 +3575,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="13">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -8737,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9305,10 +9305,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F5:F10" r:id="rId2" display="http://"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>